--- a/ESEMPIO.xlsx
+++ b/ESEMPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2C845-4903-45FE-819B-3B3FC92C7523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37141B04-1AB7-4CC0-9761-DCB393E748D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AA16992E-3B61-4B28-BB49-A781013E31D3}"/>
   </bookViews>
@@ -36,26 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>PERCORSO EMS</t>
   </si>
   <si>
-    <t>PERCORSO CAMS</t>
-  </si>
-  <si>
     <t>PERCORSO GRIGLIA</t>
   </si>
   <si>
     <t>SCELTA GRIGLIA</t>
   </si>
   <si>
-    <t>PERCENTILE CAMS</t>
-  </si>
-  <si>
-    <t>PERCENTILE EMS</t>
-  </si>
-  <si>
     <t>MAX or MEAN</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>VALORE DI SOGLIA</t>
   </si>
   <si>
-    <t>SOGLIA</t>
-  </si>
-  <si>
     <t>ANNO</t>
   </si>
   <si>
@@ -92,10 +80,40 @@
     <t>C:\Users\ASUS\Desktop\UNI\3° ANNO\PROGETTO\DATI\GriglieGeografiche\LMB3A.shp</t>
   </si>
   <si>
-    <t>C:\Users\ASUS\Desktop\CAMS\CAMS uniti\dailyPM25-171819_wdate_typ.shp</t>
-  </si>
-  <si>
-    <t>C:\Users\ASUS\Desktop\AREU\20171819 uniti-shape\dati uniti.shp</t>
+    <t>C:\Users\ASUS\Desktop\dati2019_01\dailyPM25-2019_01.shp</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\dati2019_01\AREU-2019_01-CRS32632-datatime.shp</t>
+  </si>
+  <si>
+    <t>PERC</t>
+  </si>
+  <si>
+    <t>PERCORSO POLL</t>
+  </si>
+  <si>
+    <t>PERCENTILE POLL MASSIMO</t>
+  </si>
+  <si>
+    <t>PERCENTILE POLL MINIMO</t>
+  </si>
+  <si>
+    <t>PASSO POLL</t>
+  </si>
+  <si>
+    <t>PASSO EMS</t>
+  </si>
+  <si>
+    <t>PERCENTILE EMS MASSIMO</t>
+  </si>
+  <si>
+    <t>PERCENTILE EMS MINIMO</t>
+  </si>
+  <si>
+    <t>PERCORSO POPOLAZIONE</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\UNI\3° ANNO\PROGETTO\DATI\GriglieGeografiche\Grids_PopData\LMB3A_POP_2018.csv</t>
   </si>
 </sst>
 </file>
@@ -478,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3CC433-4C29-4484-A9A2-1704EF506025}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,89 +507,121 @@
     <col min="1" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="6" width="29.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="10" width="36.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="34.88671875" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>2.5</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
+      <c r="M2">
+        <v>95</v>
+      </c>
+      <c r="N2">
+        <v>2.5</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>171819</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2">
-        <v>95</v>
-      </c>
-      <c r="I2">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ESEMPIO.xlsx
+++ b/ESEMPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37141B04-1AB7-4CC0-9761-DCB393E748D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF0F5D-17E0-4403-9076-C1F0E8BE7C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AA16992E-3B61-4B28-BB49-A781013E31D3}"/>
   </bookViews>
@@ -80,12 +80,6 @@
     <t>C:\Users\ASUS\Desktop\UNI\3° ANNO\PROGETTO\DATI\GriglieGeografiche\LMB3A.shp</t>
   </si>
   <si>
-    <t>C:\Users\ASUS\Desktop\dati2019_01\dailyPM25-2019_01.shp</t>
-  </si>
-  <si>
-    <t>C:\Users\ASUS\Desktop\dati2019_01\AREU-2019_01-CRS32632-datatime.shp</t>
-  </si>
-  <si>
     <t>PERC</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>C:\Users\ASUS\Desktop\UNI\3° ANNO\PROGETTO\DATI\GriglieGeografiche\Grids_PopData\LMB3A_POP_2018.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\CAMS\CAMS uniti\dailyPM25-171819_wdate_typ.shp</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\AREU\20171819 uniti-shape\dati uniti.shp</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -547,22 +547,22 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -579,19 +579,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>171819</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -600,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>95</v>
@@ -609,7 +609,7 @@
         <v>2.5</v>
       </c>
       <c r="L2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M2">
         <v>95</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
